--- a/tables/table-7.xlsx
+++ b/tables/table-7.xlsx
@@ -541,15 +541,11 @@
           <t>Морозов Семен Андреевич</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>79028568322</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="B9" t="n">
+        <v>79028568322</v>
+      </c>
+      <c r="C9" t="n">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
